--- a/data/trans_bre/P1432-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1432-Provincia-trans_bre.xlsx
@@ -640,18 +640,20 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.076372309842502</v>
+        <v>-1.169919291056212</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3235437966668113</v>
+        <v>0.3270614563588589</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.974043660513909</v>
-      </c>
-      <c r="F5" s="6" t="inlineStr"/>
+        <v>-0.7027087864873438</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.7638385928821926</v>
+        <v>-0.6852775108384268</v>
       </c>
     </row>
     <row r="6">
@@ -662,19 +664,17 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.083138778241998</v>
+        <v>3.142069641579547</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.709974671024757</v>
+        <v>2.754517811740798</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.237120897086369</v>
+        <v>3.152149709677384</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="inlineStr"/>
-      <c r="H6" s="6" t="n">
-        <v>11.05666963356647</v>
-      </c>
+      <c r="H6" s="6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0345706174608912</v>
+        <v>0.08836339002289054</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8952752225489767</v>
+        <v>1.038895654049664</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.5254732275204458</v>
+        <v>-0.5253123214361055</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5359721071013663</v>
+        <v>-0.538719216848343</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
@@ -736,13 +736,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.638705027080067</v>
+        <v>2.615879661844563</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.128551424698924</v>
+        <v>4.31547803564309</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.636498914018686</v>
+        <v>1.596484759623535</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
@@ -786,15 +786,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.252593207325115</v>
+        <v>-1.222145839462335</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="6" t="n">
-        <v>-0.769853887117488</v>
-      </c>
+      <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
     </row>
@@ -806,15 +804,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.365701586220189</v>
+        <v>2.458841153967443</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.57564445949718</v>
+        <v>1.912345932291954</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="6" t="n">
-        <v>5.758856492281707</v>
-      </c>
+      <c r="F12" s="6" t="inlineStr"/>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
     </row>
@@ -856,16 +852,18 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.237710730391615</v>
+        <v>-1.230904099576652</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.4321877474295236</v>
+        <v>-0.339888545448025</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.951432776553288</v>
+        <v>1.895783993009047</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
-      <c r="G14" s="6" t="inlineStr"/>
+      <c r="G14" s="6" t="n">
+        <v>-0.8148895027044933</v>
+      </c>
       <c r="H14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
@@ -876,13 +874,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.100816705379724</v>
+        <v>1.204318978775967</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.592526511891582</v>
+        <v>2.613721701455968</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.383928892547611</v>
+        <v>6.292645979210827</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
@@ -931,14 +929,14 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.399240061274761</v>
+        <v>-1.379673867491361</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.502337587581642</v>
+        <v>-2.500424629067214</v>
       </c>
       <c r="F17" s="6" t="inlineStr"/>
       <c r="G17" s="6" t="n">
-        <v>-0.6038242310299319</v>
+        <v>-0.6054712401555664</v>
       </c>
       <c r="H17" s="6" t="inlineStr"/>
     </row>
@@ -950,17 +948,17 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.530062773894091</v>
+        <v>3.666199872867389</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.331098087365119</v>
+        <v>6.614569173503908</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="inlineStr"/>
       <c r="G18" s="6" t="n">
-        <v>10.5434004716799</v>
+        <v>10.71870910561629</v>
       </c>
       <c r="H18" s="6" t="inlineStr"/>
     </row>
@@ -1002,17 +1000,19 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.5966960573905331</v>
+        <v>-0.6549455928657325</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04715559202509349</v>
+        <v>0.08574604591702936</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.444574528939838</v>
+        <v>-2.209008165453489</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
-      <c r="H20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1022,17 +1022,19 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.174536883038651</v>
+        <v>2.273768901136145</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.746921160896486</v>
+        <v>3.755206484573023</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.664091335169014</v>
+        <v>1.876670145471939</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
-      <c r="H21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="n">
+        <v>4.577870946663225</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1072,22 +1074,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.283538314157829</v>
+        <v>-1.461122097091085</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.937244515352678</v>
+        <v>-1.817646911383942</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5912386513983415</v>
+        <v>0.6029707564523706</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.9125939060015388</v>
+        <v>-1</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.7700645308458212</v>
+        <v>-0.7511491849180196</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.244997313646425</v>
+        <v>0.3393953942840296</v>
       </c>
     </row>
     <row r="24">
@@ -1098,22 +1100,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.692067179478146</v>
+        <v>0.6443569118387826</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7858510334848166</v>
+        <v>1.143934595314133</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.410358685844847</v>
+        <v>3.297859643520733</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>2.05242096557481</v>
+        <v>2.058898835996299</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.013317951407586</v>
+        <v>1.48254119628746</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>16.11114514989617</v>
+        <v>15.84290149178947</v>
       </c>
     </row>
     <row r="25">
@@ -1154,23 +1156,21 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.328228699523923</v>
+        <v>-1.28070470721344</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.01565194372853166</v>
+        <v>0.0002984774451852267</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.2175096040967032</v>
+        <v>-0.2597909930258731</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4136200298215785</v>
+        <v>-0.4064103009269744</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4053695260841202</v>
-      </c>
-      <c r="H26" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.3583411357421118</v>
+      </c>
+      <c r="H26" s="6" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.945725623113258</v>
+        <v>1.99876424827461</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.718943306454211</v>
+        <v>1.747801638993594</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.301278382651369</v>
+        <v>1.276612012633864</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.186055062695333</v>
+        <v>1.15205204323021</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>12.45117829195039</v>
+        <v>11.99961231276835</v>
       </c>
       <c r="H27" s="6" t="inlineStr"/>
     </row>
@@ -1234,22 +1234,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.1255772472221171</v>
+        <v>-0.2157742994308977</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.4644574677156977</v>
+        <v>0.4518312428049212</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.4754968360934898</v>
+        <v>0.48877150878826</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>-0.09260272553282041</v>
+        <v>-0.1582748550470676</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.5011786781532336</v>
+        <v>0.4197811549058803</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6205112419423807</v>
+        <v>0.6430329846586753</v>
       </c>
     </row>
     <row r="30">
@@ -1260,22 +1260,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.035094881563533</v>
+        <v>0.9626595356493307</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.500444454079383</v>
+        <v>1.567662227409584</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.456506839290996</v>
+        <v>1.472357621256043</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1.212092442221403</v>
+        <v>1.068432436572221</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>3.223063914969209</v>
+        <v>3.429711141219751</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>3.930625754321626</v>
+        <v>3.99438893674884</v>
       </c>
     </row>
     <row r="31">
